--- a/data/trans_orig/P1402-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>122143</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>103739</v>
+        <v>104249</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>145092</v>
+        <v>143179</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1183869314347692</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1005497566223109</v>
+        <v>0.1010437726139925</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1406302879689306</v>
+        <v>0.1387765517927571</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>184</v>
@@ -765,19 +765,19 @@
         <v>187863</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>162101</v>
+        <v>164498</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>212407</v>
+        <v>213433</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1428495143332841</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1232600243115449</v>
+        <v>0.1250830662840444</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1615120315445439</v>
+        <v>0.1622928127514298</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>312</v>
@@ -786,19 +786,19 @@
         <v>310006</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>278552</v>
+        <v>277970</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>345385</v>
+        <v>342856</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1320952003635744</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1186927566396425</v>
+        <v>0.1184447070192978</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1471706846777458</v>
+        <v>0.1460930830759863</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>909580</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>886631</v>
+        <v>888544</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>927984</v>
+        <v>927474</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8816130685652308</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8593697120310694</v>
+        <v>0.8612234482072428</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8994502433776891</v>
+        <v>0.8989562273860074</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1107</v>
@@ -836,19 +836,19 @@
         <v>1127250</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1102706</v>
+        <v>1101680</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1153012</v>
+        <v>1150615</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8571504856667159</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8384879684554561</v>
+        <v>0.8377071872485703</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8767399756884551</v>
+        <v>0.8749169337159557</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2017</v>
@@ -857,19 +857,19 @@
         <v>2036829</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2001450</v>
+        <v>2003979</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2068283</v>
+        <v>2068865</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8679047996364256</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8528293153222543</v>
+        <v>0.8539069169240137</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8813072433603575</v>
+        <v>0.8815552929807021</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>50662</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37768</v>
+        <v>38927</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64298</v>
+        <v>65769</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02991727995112549</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02230276613367586</v>
+        <v>0.02298755329601589</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03796963801377452</v>
+        <v>0.03883796764896823</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -982,19 +982,19 @@
         <v>32955</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22733</v>
+        <v>22579</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46521</v>
+        <v>45198</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02075661453618084</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01431838373159681</v>
+        <v>0.01422153147059352</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02930117495550681</v>
+        <v>0.02846828423583822</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -1003,19 +1003,19 @@
         <v>83617</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69067</v>
+        <v>66804</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103937</v>
+        <v>103570</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02548455756849051</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.021049999809927</v>
+        <v>0.02036024407200511</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0316775517125165</v>
+        <v>0.03156581670529901</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1642751</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1629115</v>
+        <v>1627644</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1655645</v>
+        <v>1654486</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9700827200488745</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9620303619862254</v>
+        <v>0.9611620323510317</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9776972338663241</v>
+        <v>0.9770124467039841</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1522</v>
@@ -1053,19 +1053,19 @@
         <v>1554718</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1541152</v>
+        <v>1542475</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1564940</v>
+        <v>1565094</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9792433854638192</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9706988250444931</v>
+        <v>0.9715317157641618</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9856816162684031</v>
+        <v>0.9857784685294064</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3119</v>
@@ -1074,19 +1074,19 @@
         <v>3197469</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3177149</v>
+        <v>3177516</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3212019</v>
+        <v>3214282</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9745154424315094</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.968322448287483</v>
+        <v>0.9684341832947008</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9789500001900728</v>
+        <v>0.9796397559279949</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>12662</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6852</v>
+        <v>6374</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21011</v>
+        <v>21059</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02296328557197744</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01242610888953781</v>
+        <v>0.01155989536217113</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03810348138259625</v>
+        <v>0.03819195886973293</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1199,19 +1199,19 @@
         <v>8431</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3933</v>
+        <v>3895</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15836</v>
+        <v>15889</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01769645456993704</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008254627555228482</v>
+        <v>0.008175518745461749</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03323996469732572</v>
+        <v>0.03335127945276721</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1220,19 +1220,19 @@
         <v>21093</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13352</v>
+        <v>13363</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31311</v>
+        <v>32408</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02052202093248155</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01299084146593581</v>
+        <v>0.01300084727884723</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03046387890499901</v>
+        <v>0.03153035914590434</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>538746</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>530397</v>
+        <v>530349</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>544556</v>
+        <v>545034</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9770367144280225</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9618965186174034</v>
+        <v>0.9618080411302673</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.987573891110462</v>
+        <v>0.9884401046378289</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>444</v>
@@ -1270,19 +1270,19 @@
         <v>467981</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>460576</v>
+        <v>460523</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>472479</v>
+        <v>472517</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9823035454300629</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9667600353026743</v>
+        <v>0.9666487205472333</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9917453724447716</v>
+        <v>0.9918244812545383</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>959</v>
@@ -1291,19 +1291,19 @@
         <v>1006727</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>996509</v>
+        <v>995412</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1014468</v>
+        <v>1014457</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9794779790675184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9695361210950009</v>
+        <v>0.9684696408540957</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9870091585340641</v>
+        <v>0.9869991527211528</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>185467</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>160697</v>
+        <v>160050</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>210098</v>
+        <v>211445</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05660445092362176</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04904478669066011</v>
+        <v>0.04884733477686531</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06412182870453942</v>
+        <v>0.06453295157741136</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>224</v>
@@ -1416,19 +1416,19 @@
         <v>229249</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>199109</v>
+        <v>203055</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>258916</v>
+        <v>260389</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06784117436893325</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05892199514737954</v>
+        <v>0.06008963272503545</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07662068985245554</v>
+        <v>0.0770563981645089</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>416</v>
@@ -1437,19 +1437,19 @@
         <v>414716</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>377736</v>
+        <v>378505</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>456861</v>
+        <v>454309</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06230946674902334</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05675342425149913</v>
+        <v>0.05686898820639158</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06864164931140564</v>
+        <v>0.06825822408767634</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3091076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3066445</v>
+        <v>3065098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3115846</v>
+        <v>3116493</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9433955490763782</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9358781712954611</v>
+        <v>0.9354670484225888</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.95095521330934</v>
+        <v>0.9511526652231349</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3073</v>
@@ -1487,19 +1487,19 @@
         <v>3149948</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3120281</v>
+        <v>3118808</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3180088</v>
+        <v>3176142</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9321588256310668</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9233793101475445</v>
+        <v>0.9229436018354911</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9410780048526205</v>
+        <v>0.9399103672749645</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6095</v>
@@ -1508,19 +1508,19 @@
         <v>6241025</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6198880</v>
+        <v>6201432</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6278005</v>
+        <v>6277236</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9376905332509766</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9313583506885944</v>
+        <v>0.9317417759123237</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9432465757485009</v>
+        <v>0.9431310117936085</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>170176</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>146617</v>
+        <v>145790</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>195627</v>
+        <v>199397</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1746029565615024</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.15043161526898</v>
+        <v>0.1495828932446561</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2007168757180041</v>
+        <v>0.2045844506640723</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>233</v>
@@ -1872,19 +1872,19 @@
         <v>244837</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>219257</v>
+        <v>217097</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>274225</v>
+        <v>275601</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1830152466419014</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1638939000007831</v>
+        <v>0.1622794669848256</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2049825425527284</v>
+        <v>0.206011016746171</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>387</v>
@@ -1893,19 +1893,19 @@
         <v>415013</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>380928</v>
+        <v>380445</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>451971</v>
+        <v>450310</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1794696492208624</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1647297004482892</v>
+        <v>0.1645210659204789</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1954519207242497</v>
+        <v>0.1947335045009561</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>804467</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>779016</v>
+        <v>775246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>828026</v>
+        <v>828853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8253970434384976</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7992831242819958</v>
+        <v>0.7954155493359274</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8495683847310199</v>
+        <v>0.8504171067553438</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1014</v>
@@ -1943,19 +1943,19 @@
         <v>1092960</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1063572</v>
+        <v>1062196</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1118540</v>
+        <v>1120700</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8169847533580985</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7950174574472716</v>
+        <v>0.7939889832538289</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8361060999992167</v>
+        <v>0.8377205330151744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1768</v>
@@ -1964,19 +1964,19 @@
         <v>1897427</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1860469</v>
+        <v>1862130</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1931512</v>
+        <v>1931995</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8205303507791376</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8045480792757503</v>
+        <v>0.8052664954990441</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8352702995517107</v>
+        <v>0.8354789340795211</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>73916</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59000</v>
+        <v>58381</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91810</v>
+        <v>92373</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.037636158024716</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03004126748159338</v>
+        <v>0.02972610998803886</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0467476296173981</v>
+        <v>0.04703408477891471</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -2089,19 +2089,19 @@
         <v>54361</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40503</v>
+        <v>40177</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70421</v>
+        <v>70761</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03098192412366863</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0230840249299976</v>
+        <v>0.02289803950745595</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04013548073519027</v>
+        <v>0.04032905513774029</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>121</v>
@@ -2110,19 +2110,19 @@
         <v>128276</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>107888</v>
+        <v>106517</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>151322</v>
+        <v>152766</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03449636765634867</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02901345651485037</v>
+        <v>0.02864469674820075</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04069389392008376</v>
+        <v>0.04108209121343784</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1890041</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1872147</v>
+        <v>1871584</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1904957</v>
+        <v>1905576</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.962363841975284</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9532523703826019</v>
+        <v>0.952965915221085</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9699587325184067</v>
+        <v>0.970273890011961</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1583</v>
@@ -2160,19 +2160,19 @@
         <v>1700231</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1684171</v>
+        <v>1683831</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1714089</v>
+        <v>1714415</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9690180758763314</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9598645192648098</v>
+        <v>0.9596709448622598</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9769159750700024</v>
+        <v>0.9771019604925441</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3368</v>
@@ -2181,19 +2181,19 @@
         <v>3590273</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3567227</v>
+        <v>3565783</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3610661</v>
+        <v>3612032</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9655036323436513</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9593061060799165</v>
+        <v>0.9589179087865624</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9709865434851497</v>
+        <v>0.9713553032517994</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>13035</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6795</v>
+        <v>6905</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24023</v>
+        <v>24150</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02708925566589133</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01412093889418839</v>
+        <v>0.0143502391965363</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04992530017075209</v>
+        <v>0.05018848994369281</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2306,19 +2306,19 @@
         <v>7060</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15473</v>
+        <v>15079</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01539360709921813</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006240043143243454</v>
+        <v>0.006236583670390543</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03373700291645946</v>
+        <v>0.03287849484265751</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -2327,19 +2327,19 @@
         <v>20095</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11540</v>
+        <v>11426</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31852</v>
+        <v>32074</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02138174711679052</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01227900289274489</v>
+        <v>0.01215791935913626</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03389175950165365</v>
+        <v>0.03412827585076235</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>468146</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>457158</v>
+        <v>457031</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>474386</v>
+        <v>474276</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9729107443341086</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9500746998292477</v>
+        <v>0.9498115100563072</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9858790611058116</v>
+        <v>0.9856497608034637</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>406</v>
@@ -2377,19 +2377,19 @@
         <v>451571</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>443158</v>
+        <v>443552</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>455769</v>
+        <v>455771</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9846063929007819</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9662629970835401</v>
+        <v>0.9671215051573424</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9937599568567564</v>
+        <v>0.9937634163296094</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>833</v>
@@ -2398,19 +2398,19 @@
         <v>919718</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>907961</v>
+        <v>907739</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>928273</v>
+        <v>928387</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9786182528832095</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9661082404983464</v>
+        <v>0.9658717241492376</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9877209971072547</v>
+        <v>0.9878420806408637</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>257126</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>227994</v>
+        <v>225486</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>289218</v>
+        <v>288802</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07518789811073037</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06666927244195542</v>
+        <v>0.06593586890879882</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08457191633751696</v>
+        <v>0.08445027157381081</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>289</v>
@@ -2523,19 +2523,19 @@
         <v>306258</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>271754</v>
+        <v>273009</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>339423</v>
+        <v>340630</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08624502789482173</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07652837177458242</v>
+        <v>0.07688171668345188</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0955845514044041</v>
+        <v>0.09592458084706153</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>525</v>
@@ -2544,19 +2544,19 @@
         <v>563384</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>515453</v>
+        <v>522528</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>608559</v>
+        <v>612968</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08082054811371071</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07394452674735874</v>
+        <v>0.07495950067921935</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08730115335134561</v>
+        <v>0.08793359572244693</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3162656</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3130564</v>
+        <v>3130980</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3191788</v>
+        <v>3194296</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9248121018892697</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9154280836624831</v>
+        <v>0.9155497284261893</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9333307275580446</v>
+        <v>0.9340641310912013</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3003</v>
@@ -2594,19 +2594,19 @@
         <v>3244762</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3211597</v>
+        <v>3210390</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3279266</v>
+        <v>3278011</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9137549721051783</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9044154485955959</v>
+        <v>0.9040754191529385</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9234716282254175</v>
+        <v>0.9231182833165481</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5969</v>
@@ -2615,19 +2615,19 @@
         <v>6407417</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6362242</v>
+        <v>6357833</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6455348</v>
+        <v>6448273</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9191794518862892</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9126988466486544</v>
+        <v>0.912066404277553</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9260554732526413</v>
+        <v>0.9250404993207807</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>148991</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>129105</v>
+        <v>129220</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>169529</v>
+        <v>171396</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1975100518739882</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1711484405350334</v>
+        <v>0.1713008508502391</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2247364973073628</v>
+        <v>0.2272104760559247</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>168</v>
@@ -2979,19 +2979,19 @@
         <v>196813</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>170241</v>
+        <v>171994</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>225816</v>
+        <v>224065</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1978697590070722</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1711546298826562</v>
+        <v>0.1729176933538825</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2270285650004369</v>
+        <v>0.2252678073160459</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>326</v>
@@ -3000,19 +3000,19 @@
         <v>345804</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>313090</v>
+        <v>309780</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>376616</v>
+        <v>379009</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1977146173041151</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1790101713888225</v>
+        <v>0.1771174361295761</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.215331062014926</v>
+        <v>0.21669965573637</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>605356</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>584818</v>
+        <v>582951</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>625242</v>
+        <v>625127</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8024899481260117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7752635026926372</v>
+        <v>0.7727895239440755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8288515594649667</v>
+        <v>0.8286991491497609</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>724</v>
@@ -3050,19 +3050,19 @@
         <v>797847</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>768844</v>
+        <v>770595</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>824419</v>
+        <v>822666</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8021302409929277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7729714349995632</v>
+        <v>0.774732192683954</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8288453701173438</v>
+        <v>0.8270823066461165</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1328</v>
@@ -3071,19 +3071,19 @@
         <v>1403203</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1372391</v>
+        <v>1369998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1435917</v>
+        <v>1439227</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8022853826958849</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7846689379850739</v>
+        <v>0.7833003442636299</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.820989828611177</v>
+        <v>0.8228825638704238</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>124053</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>103122</v>
+        <v>102142</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>148136</v>
+        <v>146180</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05974475528170609</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04966408183284034</v>
+        <v>0.04919217124278404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07134329307247395</v>
+        <v>0.07040132939219106</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -3196,19 +3196,19 @@
         <v>85672</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67438</v>
+        <v>67825</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107052</v>
+        <v>107566</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04308808156306927</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03391759304196869</v>
+        <v>0.03411218383186799</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05384073745531486</v>
+        <v>0.05409938745155736</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>194</v>
@@ -3217,19 +3217,19 @@
         <v>209725</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>180082</v>
+        <v>181925</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>240517</v>
+        <v>242822</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05159689998976452</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04430412257820639</v>
+        <v>0.04475743187827895</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05917241282132034</v>
+        <v>0.05973938828370019</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1952332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1928249</v>
+        <v>1930205</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1973263</v>
+        <v>1974243</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9402552447182939</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.928656706927526</v>
+        <v>0.929598670607809</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9503359181671596</v>
+        <v>0.9508078287572159</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1833</v>
@@ -3267,19 +3267,19 @@
         <v>1902628</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1881248</v>
+        <v>1880734</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1920862</v>
+        <v>1920475</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9569119184369307</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9461592625446852</v>
+        <v>0.9459006125484425</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9660824069580313</v>
+        <v>0.9658878161681319</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3666</v>
@@ -3288,19 +3288,19 @@
         <v>3854960</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3824168</v>
+        <v>3821863</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3884603</v>
+        <v>3882760</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9484031000102354</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9408275871786798</v>
+        <v>0.9402606117162998</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9556958774217936</v>
+        <v>0.9552425681217206</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>23805</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15088</v>
+        <v>14885</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36574</v>
+        <v>38860</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04352831961511375</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0275888596322382</v>
+        <v>0.02721743980287004</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06687609458685238</v>
+        <v>0.07105647799810064</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -3413,19 +3413,19 @@
         <v>14694</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8618</v>
+        <v>7877</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24334</v>
+        <v>24317</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02675772049410427</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01569325543497028</v>
+        <v>0.01434373818109357</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04431297835747543</v>
+        <v>0.0442816849488601</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -3434,19 +3434,19 @@
         <v>38499</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26659</v>
+        <v>27069</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51775</v>
+        <v>53770</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03512577442702367</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02432331030204263</v>
+        <v>0.02469707778234071</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04723893859759518</v>
+        <v>0.04905932986878182</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>523081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>510312</v>
+        <v>508026</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>531798</v>
+        <v>532001</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9564716803848863</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9331239054131479</v>
+        <v>0.9289435220018993</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9724111403677618</v>
+        <v>0.9727825601971299</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>512</v>
@@ -3484,19 +3484,19 @@
         <v>534446</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>524806</v>
+        <v>524823</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>540522</v>
+        <v>541263</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9732422795058957</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9556870216425247</v>
+        <v>0.9557183150511399</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9843067445650298</v>
+        <v>0.9856562618189064</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>993</v>
@@ -3505,19 +3505,19 @@
         <v>1057528</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1044252</v>
+        <v>1042257</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1069368</v>
+        <v>1068958</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9648742255729763</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9527610614024048</v>
+        <v>0.9509406701312176</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9756766896979575</v>
+        <v>0.9753029222176588</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>296849</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>267790</v>
+        <v>264086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>333841</v>
+        <v>328346</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.087887152020171</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07928371066161409</v>
+        <v>0.07818699488312145</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09883921803799435</v>
+        <v>0.0972122363175911</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>257</v>
@@ -3630,19 +3630,19 @@
         <v>297179</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>265947</v>
+        <v>265289</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>334518</v>
+        <v>333982</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08413660463101136</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07529424946063908</v>
+        <v>0.07510802928692097</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09470808566819272</v>
+        <v>0.09455616313958594</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>554</v>
@@ -3651,19 +3651,19 @@
         <v>594028</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>542379</v>
+        <v>550791</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>644028</v>
+        <v>643233</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08596995227037744</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07849513676562513</v>
+        <v>0.07971245260744959</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09320607053858453</v>
+        <v>0.0930910635333792</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3080769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3043777</v>
+        <v>3049272</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3109828</v>
+        <v>3113532</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9121128479798289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9011607819620054</v>
+        <v>0.9027877636824085</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9207162893383859</v>
+        <v>0.9218130051168785</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3069</v>
@@ -3701,19 +3701,19 @@
         <v>3234921</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3197582</v>
+        <v>3198118</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3266153</v>
+        <v>3266811</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9158633953689886</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9052919143318072</v>
+        <v>0.9054438368604143</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9247057505393607</v>
+        <v>0.9248919707130792</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5987</v>
@@ -3722,19 +3722,19 @@
         <v>6315690</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6265690</v>
+        <v>6266485</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6367339</v>
+        <v>6358927</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9140300477296226</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9067939294614155</v>
+        <v>0.9069089364666207</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9215048632343749</v>
+        <v>0.9202875473925504</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>108030</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91860</v>
+        <v>92041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123898</v>
+        <v>124203</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1875764695166013</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1594994568229496</v>
+        <v>0.1598140981302207</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2151282020189899</v>
+        <v>0.2156584403042251</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>327</v>
@@ -4086,19 +4086,19 @@
         <v>171071</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>156117</v>
+        <v>153370</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>190013</v>
+        <v>188332</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.208464155214814</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.19024143788259</v>
+        <v>0.1868932978548379</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2315461785480099</v>
+        <v>0.2294978134344812</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>484</v>
@@ -4107,19 +4107,19 @@
         <v>279102</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>256265</v>
+        <v>254062</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>302432</v>
+        <v>302407</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.199850261894582</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1834977673632515</v>
+        <v>0.1819204759232312</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2165557980016853</v>
+        <v>0.2165383494270539</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>467896</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>452028</v>
+        <v>451723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>484066</v>
+        <v>483885</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8124235304833988</v>
+        <v>0.8124235304833989</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.78487179798101</v>
+        <v>0.7843415596957749</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8405005431770506</v>
+        <v>0.840185901869779</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1098</v>
@@ -4157,19 +4157,19 @@
         <v>649556</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>630614</v>
+        <v>632295</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>664510</v>
+        <v>667257</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.791535844785186</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7684538214519901</v>
+        <v>0.7705021865655189</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.80975856211741</v>
+        <v>0.8131067021451623</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1629</v>
@@ -4178,19 +4178,19 @@
         <v>1117452</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1094122</v>
+        <v>1094147</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1140289</v>
+        <v>1142492</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.800149738105418</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7834442019983148</v>
+        <v>0.7834616505729461</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8165022326367486</v>
+        <v>0.818079524076769</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>169777</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>148553</v>
+        <v>149265</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>194421</v>
+        <v>196220</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07629485829116617</v>
+        <v>0.07629485829116618</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06675709847112277</v>
+        <v>0.06707684633611991</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08736909093126087</v>
+        <v>0.08817782408105286</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>180</v>
@@ -4303,19 +4303,19 @@
         <v>98867</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84190</v>
+        <v>84961</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112944</v>
+        <v>114732</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04558221249399062</v>
+        <v>0.04558221249399061</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03881550510811566</v>
+        <v>0.03917124761501607</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05207242729231083</v>
+        <v>0.052896833522137</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>389</v>
@@ -4324,19 +4324,19 @@
         <v>268644</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>239154</v>
+        <v>242825</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>295199</v>
+        <v>298021</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06113530780239197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05442429156535283</v>
+        <v>0.05525981709361987</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06717844298105261</v>
+        <v>0.06782057826387376</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2055502</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2030858</v>
+        <v>2029059</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2076726</v>
+        <v>2076014</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9237051417088338</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9126309090687389</v>
+        <v>0.9118221759189467</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9332429015288771</v>
+        <v>0.9329231536638799</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2737</v>
@@ -4374,19 +4374,19 @@
         <v>2070105</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2056028</v>
+        <v>2054240</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2084782</v>
+        <v>2084011</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9544177875060096</v>
+        <v>0.9544177875060094</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9479275727076892</v>
+        <v>0.9471031664778632</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9611844948918845</v>
+        <v>0.9608287523849843</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4517</v>
@@ -4395,19 +4395,19 @@
         <v>4125606</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4099051</v>
+        <v>4096229</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4155096</v>
+        <v>4151425</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9388646921976079</v>
+        <v>0.938864692197608</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9328215570189474</v>
+        <v>0.9321794217361262</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9455757084346473</v>
+        <v>0.9447401829063804</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>49685</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37315</v>
+        <v>37868</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65095</v>
+        <v>65864</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06982319450823622</v>
+        <v>0.06982319450823621</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05243887744369295</v>
+        <v>0.05321665774964029</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09147860600444513</v>
+        <v>0.09255965407935533</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -4520,19 +4520,19 @@
         <v>21207</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14173</v>
+        <v>15123</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28520</v>
+        <v>29126</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02885784813485032</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01928593710735209</v>
+        <v>0.02057953715215347</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03880903054320525</v>
+        <v>0.03963428875077565</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -4541,19 +4541,19 @@
         <v>70892</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55453</v>
+        <v>57128</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87495</v>
+        <v>88213</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04901071949293061</v>
+        <v>0.04901071949293059</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0383368181790757</v>
+        <v>0.03949487951646818</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06048859402530067</v>
+        <v>0.06098499085673755</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>661902</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>646492</v>
+        <v>645723</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>674272</v>
+        <v>673719</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9301768054917638</v>
+        <v>0.9301768054917635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9085213939955558</v>
+        <v>0.9074403459206446</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9475611225563078</v>
+        <v>0.9467833422503599</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>969</v>
@@ -4591,19 +4591,19 @@
         <v>713670</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>706357</v>
+        <v>705751</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>720704</v>
+        <v>719754</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9711421518651496</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9611909694567948</v>
+        <v>0.9603657112492239</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9807140628926481</v>
+        <v>0.9794204628478465</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1592</v>
@@ -4612,19 +4612,19 @@
         <v>1375572</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1358969</v>
+        <v>1358251</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1391011</v>
+        <v>1389336</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9509892805070693</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9395114059746997</v>
+        <v>0.9390150091432626</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9616631818209245</v>
+        <v>0.9605051204835319</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>327493</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>295406</v>
+        <v>299317</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>360488</v>
+        <v>359391</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09322863535981052</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08409443355026354</v>
+        <v>0.08520783537360677</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1026215216757456</v>
+        <v>0.1023091377282614</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>542</v>
@@ -4737,19 +4737,19 @@
         <v>291145</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>266101</v>
+        <v>269164</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>315071</v>
+        <v>317968</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07817069605525745</v>
+        <v>0.07817069605525746</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07144664688481826</v>
+        <v>0.07226905350724146</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08459480617849917</v>
+        <v>0.08537252325300092</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>966</v>
@@ -4758,19 +4758,19 @@
         <v>618638</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>577660</v>
+        <v>575194</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>655462</v>
+        <v>656615</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08547944896796683</v>
+        <v>0.08547944896796682</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07981740510833128</v>
+        <v>0.07947667600708239</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09056759127192228</v>
+        <v>0.09072688093686883</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3185299</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3152304</v>
+        <v>3153401</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3217386</v>
+        <v>3213475</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9067713646401895</v>
+        <v>0.9067713646401896</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8973784783242542</v>
+        <v>0.8976908622717386</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9159055664497364</v>
+        <v>0.9147921646263933</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4804</v>
@@ -4808,19 +4808,19 @@
         <v>3433332</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3409406</v>
+        <v>3406509</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3458376</v>
+        <v>3455313</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9218293039447425</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9154051938215009</v>
+        <v>0.9146274767469983</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9285533531151817</v>
+        <v>0.9277309464927584</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7738</v>
@@ -4829,19 +4829,19 @@
         <v>6618630</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6581806</v>
+        <v>6580653</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6659608</v>
+        <v>6662074</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9145205510320332</v>
+        <v>0.9145205510320331</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9094324087280776</v>
+        <v>0.9092731190631311</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9201825948916688</v>
+        <v>0.9205233239929176</v>
       </c>
     </row>
     <row r="15">
